--- a/biology/Biologie cellulaire et moléculaire/Chimiotrophie/Chimiotrophie.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Chimiotrophie/Chimiotrophie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La chimiotrophie est un des types trophiques caractérisant le mode de nutrition des organismes vivants. 
 On parle de chimiotrophie pour les organismes qui trouvent l'énergie nécessaire au développement de leurs cellules sans utiliser celle de la lumière du Soleil (ou d'une source artificielle). Il désigne de manière ambiguë les métabolismes à source d'énergie chimique inorganique. L’ambiguïté vient de ce que le préfixe chimio- désigne la nature chimique de la source d'énergie, le plus souvent organique, comme chez les Animaux. Ce métabolisme chimio(inorga) est connu depuis le XIXe siècle chez certaines bactéries. Il a été découvert à la fin des années 1970 dans des biocénoses abyssales sur des fumeurs noirs et a mis fin au paradigme consistant à placer la photosynthèse au début de toute chaîne alimentaire.
@@ -513,7 +525,9 @@
           <t>Principes biochimiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La chimiosynthèse est la conversion biologique de molécules contenant un ou plusieurs atomes de carbone (généralement du dioxyde de carbone ou du méthane) en éléments nutritifs utilisables pour constituer de la matière organique. Les organismes qui la pratiquent utilisent l'oxydation de molécules inorganiques (hydrogène, sulfure d'hydrogène) ou le méthane comme source d'énergie, plutôt que la lumière du Soleil utilisée par les organismes photosynthétiques pour produire des composés organiques complexes.
 </t>
@@ -544,7 +558,9 @@
           <t>Les organismes chimiotrophes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Tous les organismes connus capables de synthétiser des molécules organiques grâce à la chimiosynthèse, sont phylogénétiquement particuliers, mais appartiennent à des groupes taxonomiques comprenant des espèces non-extrémophiles.
 Ce sont des groupes qui jouent un rôle biogéochimique important. Ils comprennent :
@@ -583,7 +599,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Selon la nature du composé oxydé par les organismes, on les classe parmi :
 les organotrophes, utilisant des molécules organiques ;
@@ -618,7 +636,9 @@
           <t>Position dans les réseaux trophiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les environnements où la lumière ne pénètre pas, ou dans certains environnements extrêmes (très chauds, anoxiques…), seuls des micro-organismes chimiosynthétiques peuvent vivre. Ils peuvent à leur tour être consommés par d'autres organismes dans l'océan.  Ils peuvent aussi faire partie d'associations symbiotiques entre organismes chimiosynthétiques et organismes hétérotrophes. C'est par exemple ce qui se produit autour des sources hydrothermales ou des suintements froids, dans les fonds marins. Dans ces milieux, bien moins rares qu'on ne le pensait autrefois, des populations significatives, de plus d'une centaine d'espèces d'animaux peuvent vivre à partir de la production primaire chimiosynthétique de quelques espèces exploitant les sources hydrothermales, clathrates de méthane, les suintements froids, ou cadavres de grands cétacés en décomposition.
 </t>
@@ -649,7 +669,9 @@
           <t>Intérêt scientifique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Il est marqué depuis les années 1970.
 Le méthane produit par les déchets humains et agricoles (dont élevages) pose problème, parce qu'on le récupère mal et qu'il est un puissant gaz à effet de serre. Mieux comprendre comment d'autres espèces peuvent l'exploiter est une source possible de solutions nouvelles.
